--- a/source/pl_paymenet_date_snapshot_.xlsx
+++ b/source/pl_paymenet_date_snapshot_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://konewcorp-my.sharepoint.com/personal/briantsim_konew_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{3BEFCC7D-C5E9-4A9D-8EB3-B3F2E79394BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4587035D-5368-4EA2-8271-CF00C7A47775}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{3BEFCC7D-C5E9-4A9D-8EB3-B3F2E79394BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4D9EAB2-0812-4EC6-9A32-F737DEDB6AC8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E718B25-0C99-45AE-B1FB-142065FBCFA3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="46">
   <si>
     <t>SNAPSHOT_KEY</t>
   </si>
@@ -551,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062C575E-1FF1-4D08-84EE-5B2E9906D170}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -569,7 +569,7 @@
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="6" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.140625" customWidth="1"/>
     <col min="13" max="13" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -2069,7 +2069,7 @@
         <v>45</v>
       </c>
       <c r="B29">
-        <v>1824780</v>
+        <v>1824775</v>
       </c>
       <c r="C29">
         <v>768224</v>
@@ -2081,22 +2081,19 @@
         <v>41</v>
       </c>
       <c r="F29" s="1">
-        <v>44863</v>
+        <v>44833</v>
       </c>
       <c r="G29" s="4">
-        <v>44863</v>
+        <v>44833</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" s="6">
-        <v>229</v>
+        <v>3690</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="L29" s="1">
         <v>44893</v>
@@ -2112,10 +2109,7 @@
         <v>24</v>
       </c>
       <c r="Q29">
-        <v>229</v>
-      </c>
-      <c r="R29" t="s">
-        <v>43</v>
+        <v>3690</v>
       </c>
       <c r="S29" s="1">
         <v>44894</v>
@@ -2126,7 +2120,7 @@
         <v>45</v>
       </c>
       <c r="B30">
-        <v>1824775</v>
+        <v>1824773</v>
       </c>
       <c r="C30">
         <v>768224</v>
@@ -2138,19 +2132,19 @@
         <v>41</v>
       </c>
       <c r="F30" s="1">
-        <v>44833</v>
+        <v>44894</v>
       </c>
       <c r="G30" s="4">
-        <v>44833</v>
+        <v>44894</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I30" s="6">
-        <v>3690</v>
+        <v>9728</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L30" s="1">
         <v>44893</v>
@@ -2166,7 +2160,7 @@
         <v>24</v>
       </c>
       <c r="Q30">
-        <v>3690</v>
+        <v>9728</v>
       </c>
       <c r="S30" s="1">
         <v>44894</v>
@@ -2177,7 +2171,7 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>1824773</v>
+        <v>1824772</v>
       </c>
       <c r="C31">
         <v>768224</v>
@@ -2198,10 +2192,10 @@
         <v>8</v>
       </c>
       <c r="I31" s="6">
-        <v>9728</v>
+        <v>258</v>
       </c>
       <c r="J31" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L31" s="1">
         <v>44893</v>
@@ -2217,7 +2211,7 @@
         <v>24</v>
       </c>
       <c r="Q31">
-        <v>9728</v>
+        <v>258</v>
       </c>
       <c r="S31" s="1">
         <v>44894</v>
@@ -2228,7 +2222,7 @@
         <v>45</v>
       </c>
       <c r="B32">
-        <v>1824772</v>
+        <v>1824779</v>
       </c>
       <c r="C32">
         <v>768224</v>
@@ -2240,19 +2234,19 @@
         <v>41</v>
       </c>
       <c r="F32" s="1">
-        <v>44894</v>
+        <v>44833</v>
       </c>
       <c r="G32" s="4">
-        <v>44894</v>
+        <v>44833</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I32" s="6">
-        <v>258</v>
+        <v>365</v>
       </c>
       <c r="J32" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="L32" s="1">
         <v>44893</v>
@@ -2268,7 +2262,7 @@
         <v>24</v>
       </c>
       <c r="Q32">
-        <v>258</v>
+        <v>365</v>
       </c>
       <c r="S32" s="1">
         <v>44894</v>
@@ -2279,7 +2273,7 @@
         <v>45</v>
       </c>
       <c r="B33">
-        <v>1824779</v>
+        <v>1824770</v>
       </c>
       <c r="C33">
         <v>768224</v>
@@ -2291,19 +2285,19 @@
         <v>41</v>
       </c>
       <c r="F33" s="1">
-        <v>44833</v>
+        <v>44863</v>
       </c>
       <c r="G33" s="4">
-        <v>44833</v>
+        <v>44863</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I33" s="6">
-        <v>365</v>
+        <v>9819</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="L33" s="1">
         <v>44893</v>
@@ -2319,7 +2313,7 @@
         <v>24</v>
       </c>
       <c r="Q33">
-        <v>365</v>
+        <v>9819</v>
       </c>
       <c r="S33" s="1">
         <v>44894</v>
@@ -2330,7 +2324,7 @@
         <v>45</v>
       </c>
       <c r="B34">
-        <v>1824770</v>
+        <v>1824777</v>
       </c>
       <c r="C34">
         <v>768224</v>
@@ -2342,19 +2336,19 @@
         <v>41</v>
       </c>
       <c r="F34" s="1">
-        <v>44863</v>
+        <v>44894</v>
       </c>
       <c r="G34" s="4">
-        <v>44863</v>
+        <v>44894</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I34" s="6">
-        <v>9819</v>
+        <v>3869</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L34" s="1">
         <v>44893</v>
@@ -2370,7 +2364,7 @@
         <v>24</v>
       </c>
       <c r="Q34">
-        <v>9819</v>
+        <v>3869</v>
       </c>
       <c r="S34" s="1">
         <v>44894</v>
@@ -2381,7 +2375,7 @@
         <v>45</v>
       </c>
       <c r="B35">
-        <v>1824777</v>
+        <v>1824778</v>
       </c>
       <c r="C35">
         <v>768224</v>
@@ -2393,19 +2387,19 @@
         <v>41</v>
       </c>
       <c r="F35" s="1">
-        <v>44894</v>
+        <v>44802</v>
       </c>
       <c r="G35" s="4">
-        <v>44894</v>
+        <v>44802</v>
       </c>
       <c r="H35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I35" s="6">
-        <v>3869</v>
+        <v>458</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="L35" s="1">
         <v>44893</v>
@@ -2421,7 +2415,7 @@
         <v>24</v>
       </c>
       <c r="Q35">
-        <v>3869</v>
+        <v>458</v>
       </c>
       <c r="S35" s="1">
         <v>44894</v>
@@ -2432,7 +2426,7 @@
         <v>45</v>
       </c>
       <c r="B36">
-        <v>1824778</v>
+        <v>1824771</v>
       </c>
       <c r="C36">
         <v>768224</v>
@@ -2444,19 +2438,19 @@
         <v>41</v>
       </c>
       <c r="F36" s="1">
-        <v>44802</v>
+        <v>44863</v>
       </c>
       <c r="G36" s="4">
-        <v>44802</v>
+        <v>44863</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I36" s="6">
-        <v>458</v>
+        <v>175</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="L36" s="1">
         <v>44893</v>
@@ -2472,7 +2466,7 @@
         <v>24</v>
       </c>
       <c r="Q36">
-        <v>458</v>
+        <v>175</v>
       </c>
       <c r="S36" s="1">
         <v>44894</v>
@@ -2483,7 +2477,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>1824771</v>
+        <v>1824769</v>
       </c>
       <c r="C37">
         <v>768224</v>
@@ -2495,19 +2489,22 @@
         <v>41</v>
       </c>
       <c r="F37" s="1">
-        <v>44863</v>
+        <v>44833</v>
       </c>
       <c r="G37" s="4">
-        <v>44863</v>
+        <v>44833</v>
       </c>
       <c r="H37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I37" s="6">
-        <v>175</v>
+        <v>5988</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>25</v>
+      </c>
+      <c r="K37" t="s">
+        <v>44</v>
       </c>
       <c r="L37" s="1">
         <v>44893</v>
@@ -2523,7 +2520,10 @@
         <v>24</v>
       </c>
       <c r="Q37">
-        <v>175</v>
+        <v>5988</v>
+      </c>
+      <c r="R37" t="s">
+        <v>44</v>
       </c>
       <c r="S37" s="1">
         <v>44894</v>
@@ -2534,7 +2534,7 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>1824769</v>
+        <v>1824774</v>
       </c>
       <c r="C38">
         <v>768224</v>
@@ -2546,22 +2546,19 @@
         <v>41</v>
       </c>
       <c r="F38" s="1">
-        <v>44833</v>
+        <v>44802</v>
       </c>
       <c r="G38" s="4">
-        <v>44833</v>
+        <v>44802</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I38" s="6">
-        <v>5988</v>
+        <v>3603</v>
       </c>
       <c r="J38" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L38" s="1">
         <v>44893</v>
@@ -2577,10 +2574,7 @@
         <v>24</v>
       </c>
       <c r="Q38">
-        <v>5988</v>
-      </c>
-      <c r="R38" t="s">
-        <v>44</v>
+        <v>3603</v>
       </c>
       <c r="S38" s="1">
         <v>44894</v>
@@ -2591,7 +2585,7 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>1824774</v>
+        <v>1824776</v>
       </c>
       <c r="C39">
         <v>768224</v>
@@ -2603,16 +2597,16 @@
         <v>41</v>
       </c>
       <c r="F39" s="1">
-        <v>44802</v>
+        <v>44863</v>
       </c>
       <c r="G39" s="4">
-        <v>44802</v>
+        <v>44863</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I39" s="6">
-        <v>3603</v>
+        <v>3778</v>
       </c>
       <c r="J39" t="s">
         <v>22</v>
@@ -2631,60 +2625,9 @@
         <v>24</v>
       </c>
       <c r="Q39">
-        <v>3603</v>
+        <v>3778</v>
       </c>
       <c r="S39" s="1">
-        <v>44894</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>1824776</v>
-      </c>
-      <c r="C40">
-        <v>768224</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="1">
-        <v>44863</v>
-      </c>
-      <c r="G40" s="4">
-        <v>44863</v>
-      </c>
-      <c r="H40">
-        <v>7</v>
-      </c>
-      <c r="I40" s="6">
-        <v>3778</v>
-      </c>
-      <c r="J40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="1">
-        <v>44893</v>
-      </c>
-      <c r="M40" s="1">
-        <v>44893</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q40">
-        <v>3778</v>
-      </c>
-      <c r="S40" s="1">
         <v>44894</v>
       </c>
     </row>
